--- a/data/第一阶段问卷.xlsx
+++ b/data/第一阶段问卷.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liubaiyuan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liubaiyuan/Documents/GitHub/kansei_thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="12340"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="20480" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2062,7 +2062,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2092,6 +2092,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2529,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="AA93" workbookViewId="0">
+      <selection activeCell="AC104" sqref="AC103:AC104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2775,7 +2778,9 @@
       <c r="AB3" s="2">
         <v>0</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
       <c r="AD3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2899,7 +2904,9 @@
       <c r="AB4" s="2">
         <v>0</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
       <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
@@ -3023,7 +3030,9 @@
       <c r="AB5" s="2">
         <v>0</v>
       </c>
-      <c r="AC5" s="2"/>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
       <c r="AD5" s="2" t="s">
         <v>48</v>
       </c>
@@ -3147,7 +3156,9 @@
       <c r="AB6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
       <c r="AD6" s="2" t="s">
         <v>54</v>
       </c>
@@ -3271,7 +3282,9 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
       <c r="AD7" s="2" t="s">
         <v>33</v>
       </c>
@@ -3395,7 +3408,9 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
       <c r="AD8" s="2" t="s">
         <v>33</v>
       </c>
@@ -3521,7 +3536,9 @@
       <c r="AB9" s="2">
         <v>1</v>
       </c>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
       <c r="AD9" s="2" t="s">
         <v>74</v>
       </c>
@@ -3647,7 +3664,9 @@
       <c r="AB10" s="2">
         <v>1</v>
       </c>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
       <c r="AD10" s="2" t="s">
         <v>84</v>
       </c>
@@ -3773,7 +3792,9 @@
       <c r="AB11" s="2">
         <v>0</v>
       </c>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
       <c r="AD11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3897,7 +3918,9 @@
       <c r="AB12" s="2">
         <v>1</v>
       </c>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
       <c r="AD12" s="2" t="s">
         <v>84</v>
       </c>
@@ -4021,7 +4044,9 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
       <c r="AD13" s="2" t="s">
         <v>104</v>
       </c>
@@ -4147,7 +4172,9 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="2"/>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
       <c r="AD14" s="2" t="s">
         <v>104</v>
       </c>
@@ -4271,7 +4298,9 @@
       <c r="AB15" s="2">
         <v>1</v>
       </c>
-      <c r="AC15" s="2"/>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
       <c r="AD15" s="2" t="s">
         <v>115</v>
       </c>
@@ -4395,7 +4424,9 @@
       <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
       <c r="AD16" s="2" t="s">
         <v>104</v>
       </c>
@@ -4521,7 +4552,9 @@
       <c r="AB17" s="2">
         <v>1</v>
       </c>
-      <c r="AC17" s="2"/>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
       <c r="AD17" s="2" t="s">
         <v>126</v>
       </c>
@@ -4645,7 +4678,9 @@
       <c r="AB18" s="2">
         <v>1</v>
       </c>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
       <c r="AD18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4769,7 +4804,9 @@
       <c r="AB19" s="2">
         <v>1</v>
       </c>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
       <c r="AD19" s="2" t="s">
         <v>84</v>
       </c>
@@ -4893,7 +4930,9 @@
       <c r="AB20" s="2">
         <v>0</v>
       </c>
-      <c r="AC20" s="2"/>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
       <c r="AD20" s="2" t="s">
         <v>33</v>
       </c>
@@ -5017,7 +5056,9 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2"/>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
       <c r="AD21" s="2" t="s">
         <v>33</v>
       </c>
@@ -5141,7 +5182,9 @@
       <c r="AB22" s="2">
         <v>1</v>
       </c>
-      <c r="AC22" s="2"/>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
       <c r="AD22" s="2" t="s">
         <v>144</v>
       </c>
@@ -5265,7 +5308,9 @@
       <c r="AB23" s="2">
         <v>1</v>
       </c>
-      <c r="AC23" s="2"/>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
       <c r="AD23" s="2" t="s">
         <v>149</v>
       </c>
@@ -5389,7 +5434,9 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2"/>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
       <c r="AD24" s="2" t="s">
         <v>33</v>
       </c>
@@ -5513,7 +5560,9 @@
       <c r="AB25" s="2">
         <v>0</v>
       </c>
-      <c r="AC25" s="2"/>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
       <c r="AD25" s="2" t="s">
         <v>33</v>
       </c>
@@ -5637,7 +5686,9 @@
       <c r="AB26" s="2">
         <v>0</v>
       </c>
-      <c r="AC26" s="2"/>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
       <c r="AD26" s="2" t="s">
         <v>161</v>
       </c>
@@ -5759,7 +5810,9 @@
       <c r="AB27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="2"/>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
       <c r="AD27" s="2" t="s">
         <v>48</v>
       </c>
@@ -5883,7 +5936,9 @@
       <c r="AB28" s="2">
         <v>0</v>
       </c>
-      <c r="AC28" s="2"/>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
       <c r="AD28" s="2" t="s">
         <v>48</v>
       </c>
@@ -6007,7 +6062,9 @@
       <c r="AB29" s="2">
         <v>0</v>
       </c>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
       <c r="AD29" s="2" t="s">
         <v>33</v>
       </c>
@@ -6131,7 +6188,9 @@
       <c r="AB30" s="2">
         <v>1</v>
       </c>
-      <c r="AC30" s="2"/>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
       <c r="AD30" s="2" t="s">
         <v>180</v>
       </c>
@@ -6257,7 +6316,9 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="2"/>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
       <c r="AD31" s="2" t="s">
         <v>33</v>
       </c>
@@ -6381,7 +6442,9 @@
       <c r="AB32" s="2">
         <v>0</v>
       </c>
-      <c r="AC32" s="2"/>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
       <c r="AD32" s="2" t="s">
         <v>161</v>
       </c>
@@ -6505,7 +6568,9 @@
       <c r="AB33" s="2">
         <v>1</v>
       </c>
-      <c r="AC33" s="2"/>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
       <c r="AD33" s="2" t="s">
         <v>493</v>
       </c>
@@ -6629,7 +6694,9 @@
       <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AC34" s="2"/>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
       <c r="AD34" s="2" t="s">
         <v>104</v>
       </c>
@@ -6753,7 +6820,9 @@
       <c r="AB35" s="2">
         <v>1</v>
       </c>
-      <c r="AC35" s="2"/>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
       <c r="AD35" s="2" t="s">
         <v>205</v>
       </c>
@@ -6877,7 +6946,9 @@
       <c r="AB36" s="2">
         <v>0</v>
       </c>
-      <c r="AC36" s="2"/>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
       <c r="AD36" s="2" t="s">
         <v>104</v>
       </c>
@@ -7001,7 +7072,9 @@
       <c r="AB37" s="2">
         <v>0</v>
       </c>
-      <c r="AC37" s="2"/>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
       <c r="AD37" s="2" t="s">
         <v>33</v>
       </c>
@@ -7125,7 +7198,9 @@
       <c r="AB38" s="2">
         <v>0</v>
       </c>
-      <c r="AC38" s="2"/>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
       <c r="AD38" s="2" t="s">
         <v>48</v>
       </c>
@@ -7247,7 +7322,9 @@
       <c r="AB39" s="2">
         <v>0</v>
       </c>
-      <c r="AC39" s="2"/>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
       <c r="AD39" s="2" t="s">
         <v>104</v>
       </c>
@@ -7371,7 +7448,9 @@
       <c r="AB40" s="2">
         <v>0</v>
       </c>
-      <c r="AC40" s="2"/>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
       <c r="AD40" s="2" t="s">
         <v>223</v>
       </c>
@@ -7495,7 +7574,9 @@
       <c r="AB41" s="2">
         <v>0</v>
       </c>
-      <c r="AC41" s="2"/>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
       <c r="AD41" s="2" t="s">
         <v>104</v>
       </c>
@@ -7619,7 +7700,9 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2"/>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
       <c r="AD42" s="2" t="s">
         <v>33</v>
       </c>
@@ -7743,7 +7826,9 @@
       <c r="AB43" s="2">
         <v>1</v>
       </c>
-      <c r="AC43" s="2"/>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
       <c r="AD43" s="2" t="s">
         <v>235</v>
       </c>
@@ -7867,7 +7952,9 @@
       <c r="AB44" s="2">
         <v>0</v>
       </c>
-      <c r="AC44" s="2"/>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
       <c r="AD44" s="2" t="s">
         <v>33</v>
       </c>
@@ -7991,8 +8078,10 @@
       <c r="AB45" s="2">
         <v>1</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2" t="s">
+      <c r="AC45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="13" t="s">
         <v>242</v>
       </c>
       <c r="AE45" s="2">
@@ -8115,7 +8204,9 @@
       <c r="AB46" s="2">
         <v>0</v>
       </c>
-      <c r="AC46" s="2"/>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
       <c r="AD46" s="2" t="s">
         <v>33</v>
       </c>
@@ -8239,7 +8330,9 @@
       <c r="AB47" s="2">
         <v>0</v>
       </c>
-      <c r="AC47" s="2"/>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
       <c r="AD47" s="2" t="s">
         <v>161</v>
       </c>
@@ -8363,7 +8456,9 @@
       <c r="AB48" s="2">
         <v>1</v>
       </c>
-      <c r="AC48" s="2"/>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
       <c r="AD48" s="2" t="s">
         <v>235</v>
       </c>
@@ -8487,7 +8582,9 @@
       <c r="AB49" s="2">
         <v>1</v>
       </c>
-      <c r="AC49" s="2"/>
+      <c r="AC49" s="2">
+        <v>1</v>
+      </c>
       <c r="AD49" s="2" t="s">
         <v>257</v>
       </c>
@@ -8611,7 +8708,9 @@
       <c r="AB50" s="2">
         <v>0</v>
       </c>
-      <c r="AC50" s="2"/>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
       <c r="AD50" s="2" t="s">
         <v>48</v>
       </c>
@@ -8735,7 +8834,9 @@
       <c r="AB51" s="2">
         <v>0</v>
       </c>
-      <c r="AC51" s="2"/>
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
       <c r="AD51" s="2" t="s">
         <v>33</v>
       </c>
@@ -8859,7 +8960,9 @@
       <c r="AB52" s="2">
         <v>1</v>
       </c>
-      <c r="AC52" s="2"/>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
       <c r="AD52" s="2" t="s">
         <v>115</v>
       </c>
@@ -8983,7 +9086,9 @@
       <c r="AB53" s="2">
         <v>0</v>
       </c>
-      <c r="AC53" s="2"/>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
       <c r="AD53" s="2" t="s">
         <v>33</v>
       </c>
@@ -9107,7 +9212,9 @@
       <c r="AB54" s="2">
         <v>1</v>
       </c>
-      <c r="AC54" s="2"/>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
       <c r="AD54" s="2" t="s">
         <v>126</v>
       </c>
@@ -9231,7 +9338,9 @@
       <c r="AB55" s="2">
         <v>1</v>
       </c>
-      <c r="AC55" s="2"/>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
       <c r="AD55" s="2" t="s">
         <v>281</v>
       </c>
@@ -9355,7 +9464,9 @@
       <c r="AB56" s="2">
         <v>1</v>
       </c>
-      <c r="AC56" s="2"/>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
       <c r="AD56" s="2" t="s">
         <v>180</v>
       </c>
@@ -9553,7 +9664,9 @@
       <c r="AB58" s="2">
         <v>0</v>
       </c>
-      <c r="AC58" s="2"/>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
       <c r="AD58" s="2" t="s">
         <v>292</v>
       </c>
@@ -9679,7 +9792,9 @@
       <c r="AB59" s="2">
         <v>1</v>
       </c>
-      <c r="AC59" s="2"/>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
       <c r="AD59" s="2" t="s">
         <v>115</v>
       </c>
@@ -9803,7 +9918,9 @@
       <c r="AB60" s="2">
         <v>1</v>
       </c>
-      <c r="AC60" s="2"/>
+      <c r="AC60" s="2">
+        <v>0</v>
+      </c>
       <c r="AD60" s="2" t="s">
         <v>115</v>
       </c>
@@ -9927,7 +10044,9 @@
       <c r="AB61" s="2">
         <v>0</v>
       </c>
-      <c r="AC61" s="2"/>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
       <c r="AD61" s="2" t="s">
         <v>292</v>
       </c>
@@ -10051,7 +10170,9 @@
       <c r="AB62" s="2">
         <v>0</v>
       </c>
-      <c r="AC62" s="2"/>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
       <c r="AD62" s="2" t="s">
         <v>48</v>
       </c>
@@ -10247,7 +10368,9 @@
       <c r="AB64" s="2">
         <v>1</v>
       </c>
-      <c r="AC64" s="2"/>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
       <c r="AD64" s="2" t="s">
         <v>115</v>
       </c>
@@ -10371,7 +10494,9 @@
       <c r="AB65" s="2">
         <v>0</v>
       </c>
-      <c r="AC65" s="2"/>
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
       <c r="AD65" s="2" t="s">
         <v>292</v>
       </c>
@@ -10495,7 +10620,9 @@
       <c r="AB66" s="2">
         <v>0</v>
       </c>
-      <c r="AC66" s="2"/>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
       <c r="AD66" s="2" t="s">
         <v>33</v>
       </c>
@@ -10619,7 +10746,9 @@
       <c r="AB67" s="2">
         <v>0</v>
       </c>
-      <c r="AC67" s="2"/>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
       <c r="AD67" s="2" t="s">
         <v>33</v>
       </c>
@@ -10743,7 +10872,9 @@
       <c r="AB68" s="2">
         <v>0</v>
       </c>
-      <c r="AC68" s="2"/>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
       <c r="AD68" s="2" t="s">
         <v>48</v>
       </c>
@@ -10867,7 +10998,9 @@
       <c r="AB69" s="2">
         <v>0</v>
       </c>
-      <c r="AC69" s="2"/>
+      <c r="AC69" s="2">
+        <v>0</v>
+      </c>
       <c r="AD69" s="2" t="s">
         <v>33</v>
       </c>
@@ -10991,7 +11124,9 @@
       <c r="AB70" s="2">
         <v>0</v>
       </c>
-      <c r="AC70" s="2"/>
+      <c r="AC70" s="2">
+        <v>0</v>
+      </c>
       <c r="AD70" s="2" t="s">
         <v>104</v>
       </c>
@@ -11115,7 +11250,9 @@
       <c r="AB71" s="2">
         <v>0</v>
       </c>
-      <c r="AC71" s="2"/>
+      <c r="AC71" s="2">
+        <v>0</v>
+      </c>
       <c r="AD71" s="2" t="s">
         <v>33</v>
       </c>
@@ -11239,7 +11376,9 @@
       <c r="AB72" s="2">
         <v>0</v>
       </c>
-      <c r="AC72" s="2"/>
+      <c r="AC72" s="2">
+        <v>0</v>
+      </c>
       <c r="AD72" s="2" t="s">
         <v>48</v>
       </c>
@@ -11357,7 +11496,9 @@
       <c r="AB73" s="2">
         <v>0</v>
       </c>
-      <c r="AC73" s="2"/>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
       <c r="AD73" s="2" t="s">
         <v>104</v>
       </c>
@@ -11481,7 +11622,9 @@
       <c r="AB74" s="2">
         <v>0</v>
       </c>
-      <c r="AC74" s="2"/>
+      <c r="AC74" s="2">
+        <v>1</v>
+      </c>
       <c r="AD74" s="2" t="s">
         <v>346</v>
       </c>
@@ -11605,7 +11748,9 @@
       <c r="AB75" s="2">
         <v>0</v>
       </c>
-      <c r="AC75" s="2"/>
+      <c r="AC75" s="2">
+        <v>0</v>
+      </c>
       <c r="AD75" s="2" t="s">
         <v>33</v>
       </c>
@@ -11729,7 +11874,9 @@
       <c r="AB76" s="2">
         <v>1</v>
       </c>
-      <c r="AC76" s="2"/>
+      <c r="AC76" s="2">
+        <v>0</v>
+      </c>
       <c r="AD76" s="2" t="s">
         <v>115</v>
       </c>
@@ -11853,7 +12000,9 @@
       <c r="AB77" s="2">
         <v>1</v>
       </c>
-      <c r="AC77" s="2"/>
+      <c r="AC77" s="2">
+        <v>0</v>
+      </c>
       <c r="AD77" s="2" t="s">
         <v>115</v>
       </c>
@@ -11979,7 +12128,9 @@
       <c r="AB78" s="2">
         <v>0</v>
       </c>
-      <c r="AC78" s="2"/>
+      <c r="AC78" s="2">
+        <v>0</v>
+      </c>
       <c r="AD78" s="2" t="s">
         <v>33</v>
       </c>
@@ -12103,7 +12254,9 @@
       <c r="AB79" s="2">
         <v>0</v>
       </c>
-      <c r="AC79" s="2"/>
+      <c r="AC79" s="2">
+        <v>0</v>
+      </c>
       <c r="AD79" s="2" t="s">
         <v>33</v>
       </c>
@@ -12227,7 +12380,9 @@
       <c r="AB80" s="2">
         <v>0</v>
       </c>
-      <c r="AC80" s="2"/>
+      <c r="AC80" s="2">
+        <v>0</v>
+      </c>
       <c r="AD80" s="2" t="s">
         <v>223</v>
       </c>
@@ -12351,7 +12506,9 @@
       <c r="AB81" s="2">
         <v>1</v>
       </c>
-      <c r="AC81" s="2"/>
+      <c r="AC81" s="2">
+        <v>1</v>
+      </c>
       <c r="AD81" s="2" t="s">
         <v>369</v>
       </c>
@@ -12475,7 +12632,9 @@
       <c r="AB82" s="2">
         <v>1</v>
       </c>
-      <c r="AC82" s="2"/>
+      <c r="AC82" s="2">
+        <v>1</v>
+      </c>
       <c r="AD82" s="2" t="s">
         <v>373</v>
       </c>
@@ -12599,7 +12758,9 @@
       <c r="AB83" s="2">
         <v>0</v>
       </c>
-      <c r="AC83" s="2"/>
+      <c r="AC83" s="2">
+        <v>1</v>
+      </c>
       <c r="AD83" s="2" t="s">
         <v>377</v>
       </c>
@@ -12723,7 +12884,9 @@
       <c r="AB84" s="2">
         <v>0</v>
       </c>
-      <c r="AC84" s="2"/>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
       <c r="AD84" s="2" t="s">
         <v>33</v>
       </c>
@@ -12847,7 +13010,9 @@
       <c r="AB85" s="2">
         <v>0</v>
       </c>
-      <c r="AC85" s="2"/>
+      <c r="AC85" s="2">
+        <v>0</v>
+      </c>
       <c r="AD85" s="2" t="s">
         <v>33</v>
       </c>
@@ -12973,7 +13138,9 @@
       <c r="AB86" s="2">
         <v>0</v>
       </c>
-      <c r="AC86" s="2"/>
+      <c r="AC86" s="2">
+        <v>0</v>
+      </c>
       <c r="AD86" s="2" t="s">
         <v>104</v>
       </c>
@@ -13099,7 +13266,9 @@
       <c r="AB87" s="2">
         <v>0</v>
       </c>
-      <c r="AC87" s="2"/>
+      <c r="AC87" s="2">
+        <v>0</v>
+      </c>
       <c r="AD87" s="2" t="s">
         <v>33</v>
       </c>
@@ -13223,7 +13392,9 @@
       <c r="AB88" s="2">
         <v>1</v>
       </c>
-      <c r="AC88" s="2"/>
+      <c r="AC88" s="2">
+        <v>0</v>
+      </c>
       <c r="AD88" s="2" t="s">
         <v>395</v>
       </c>
@@ -13347,7 +13518,9 @@
       <c r="AB89" s="2">
         <v>1</v>
       </c>
-      <c r="AC89" s="2"/>
+      <c r="AC89" s="2">
+        <v>0</v>
+      </c>
       <c r="AD89" s="2" t="s">
         <v>401</v>
       </c>
@@ -13473,7 +13646,9 @@
       <c r="AB90" s="2">
         <v>0</v>
       </c>
-      <c r="AC90" s="2"/>
+      <c r="AC90" s="2">
+        <v>0</v>
+      </c>
       <c r="AD90" s="2" t="s">
         <v>33</v>
       </c>
@@ -13597,7 +13772,9 @@
       <c r="AB91" s="2">
         <v>0</v>
       </c>
-      <c r="AC91" s="2"/>
+      <c r="AC91" s="2">
+        <v>0</v>
+      </c>
       <c r="AD91" s="2" t="s">
         <v>33</v>
       </c>
@@ -13721,7 +13898,9 @@
       <c r="AB92" s="2">
         <v>0</v>
       </c>
-      <c r="AC92" s="2"/>
+      <c r="AC92" s="2">
+        <v>0</v>
+      </c>
       <c r="AD92" s="2" t="s">
         <v>104</v>
       </c>
@@ -13845,7 +14024,9 @@
       <c r="AB93" s="2">
         <v>0</v>
       </c>
-      <c r="AC93" s="2"/>
+      <c r="AC93" s="2">
+        <v>0</v>
+      </c>
       <c r="AD93" s="2" t="s">
         <v>33</v>
       </c>
@@ -13969,7 +14150,9 @@
       <c r="AB94" s="2">
         <v>0</v>
       </c>
-      <c r="AC94" s="2"/>
+      <c r="AC94" s="2">
+        <v>0</v>
+      </c>
       <c r="AD94" s="2" t="s">
         <v>33</v>
       </c>
@@ -14093,7 +14276,9 @@
       <c r="AB95" s="2">
         <v>0</v>
       </c>
-      <c r="AC95" s="2"/>
+      <c r="AC95" s="2">
+        <v>0</v>
+      </c>
       <c r="AD95" s="2" t="s">
         <v>104</v>
       </c>
@@ -14219,7 +14404,9 @@
       <c r="AB96" s="2">
         <v>1</v>
       </c>
-      <c r="AC96" s="2"/>
+      <c r="AC96" s="2">
+        <v>0</v>
+      </c>
       <c r="AD96" s="2" t="s">
         <v>196</v>
       </c>
@@ -14341,7 +14528,9 @@
       <c r="AB97" s="2">
         <v>0</v>
       </c>
-      <c r="AC97" s="2"/>
+      <c r="AC97" s="2">
+        <v>0</v>
+      </c>
       <c r="AD97" s="2" t="s">
         <v>223</v>
       </c>
@@ -14465,7 +14654,9 @@
       <c r="AB98" s="2">
         <v>0</v>
       </c>
-      <c r="AC98" s="2"/>
+      <c r="AC98" s="2">
+        <v>0</v>
+      </c>
       <c r="AD98" s="2" t="s">
         <v>33</v>
       </c>
@@ -14589,7 +14780,9 @@
       <c r="AB99" s="2">
         <v>0</v>
       </c>
-      <c r="AC99" s="2"/>
+      <c r="AC99" s="2">
+        <v>0</v>
+      </c>
       <c r="AD99" s="2" t="s">
         <v>33</v>
       </c>
@@ -14713,7 +14906,9 @@
       <c r="AB100" s="2">
         <v>1</v>
       </c>
-      <c r="AC100" s="2"/>
+      <c r="AC100" s="2">
+        <v>1</v>
+      </c>
       <c r="AD100" s="2" t="s">
         <v>437</v>
       </c>
@@ -14837,7 +15032,9 @@
       <c r="AB101" s="2">
         <v>0</v>
       </c>
-      <c r="AC101" s="2"/>
+      <c r="AC101" s="2">
+        <v>0</v>
+      </c>
       <c r="AD101" s="2" t="s">
         <v>33</v>
       </c>
@@ -14961,7 +15158,9 @@
       <c r="AB102" s="2">
         <v>1</v>
       </c>
-      <c r="AC102" s="2"/>
+      <c r="AC102" s="2">
+        <v>0</v>
+      </c>
       <c r="AD102" s="2" t="s">
         <v>115</v>
       </c>
@@ -15085,7 +15284,9 @@
       <c r="AB103" s="2">
         <v>0</v>
       </c>
-      <c r="AC103" s="2"/>
+      <c r="AC103" s="2">
+        <v>0</v>
+      </c>
       <c r="AD103" s="2" t="s">
         <v>33</v>
       </c>
@@ -15209,7 +15410,9 @@
       <c r="AB104" s="2">
         <v>0</v>
       </c>
-      <c r="AC104" s="2"/>
+      <c r="AC104" s="2">
+        <v>1</v>
+      </c>
       <c r="AD104" s="2" t="s">
         <v>453</v>
       </c>
@@ -15333,7 +15536,9 @@
       <c r="AB105" s="2">
         <v>1</v>
       </c>
-      <c r="AC105" s="2"/>
+      <c r="AC105" s="2">
+        <v>1</v>
+      </c>
       <c r="AD105" s="2" t="s">
         <v>458</v>
       </c>
@@ -15457,7 +15662,9 @@
       <c r="AB106" s="2">
         <v>0</v>
       </c>
-      <c r="AC106" s="2"/>
+      <c r="AC106" s="2">
+        <v>0</v>
+      </c>
       <c r="AD106" s="2" t="s">
         <v>33</v>
       </c>
@@ -15583,7 +15790,9 @@
       <c r="AB107" s="2">
         <v>1</v>
       </c>
-      <c r="AC107" s="2"/>
+      <c r="AC107" s="2">
+        <v>0</v>
+      </c>
       <c r="AD107" s="2" t="s">
         <v>401</v>
       </c>
@@ -15707,7 +15916,9 @@
       <c r="AB108" s="2">
         <v>0</v>
       </c>
-      <c r="AC108" s="2"/>
+      <c r="AC108" s="2">
+        <v>0</v>
+      </c>
       <c r="AD108" s="2" t="s">
         <v>33</v>
       </c>
@@ -15831,7 +16042,9 @@
       <c r="AB109" s="2">
         <v>0</v>
       </c>
-      <c r="AC109" s="2"/>
+      <c r="AC109" s="2">
+        <v>0</v>
+      </c>
       <c r="AD109" s="2" t="s">
         <v>472</v>
       </c>
@@ -15955,7 +16168,9 @@
       <c r="AB110" s="2">
         <v>1</v>
       </c>
-      <c r="AC110" s="2"/>
+      <c r="AC110" s="2">
+        <v>0</v>
+      </c>
       <c r="AD110" s="2" t="s">
         <v>196</v>
       </c>
@@ -16079,7 +16294,9 @@
       <c r="AB111" s="2">
         <v>0</v>
       </c>
-      <c r="AC111" s="2"/>
+      <c r="AC111" s="2">
+        <v>0</v>
+      </c>
       <c r="AD111" s="2" t="s">
         <v>104</v>
       </c>
@@ -16203,7 +16420,9 @@
       <c r="AB112" s="2">
         <v>0</v>
       </c>
-      <c r="AC112" s="2"/>
+      <c r="AC112" s="2">
+        <v>0</v>
+      </c>
       <c r="AD112" s="2" t="s">
         <v>33</v>
       </c>
@@ -16327,7 +16546,9 @@
       <c r="AB113" s="2">
         <v>1</v>
       </c>
-      <c r="AC113" s="2"/>
+      <c r="AC113" s="2">
+        <v>0</v>
+      </c>
       <c r="AD113" s="2" t="s">
         <v>483</v>
       </c>
@@ -16451,7 +16672,9 @@
       <c r="AB114" s="2">
         <v>0</v>
       </c>
-      <c r="AC114" s="2"/>
+      <c r="AC114" s="2">
+        <v>0</v>
+      </c>
       <c r="AD114" s="2" t="s">
         <v>104</v>
       </c>
